--- a/output/USDummyModelTripleInteraction.xlsx
+++ b/output/USDummyModelTripleInteraction.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bz22\Desktop\ComparativeMortality\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{38B0F2F2-2956-4527-B2A3-9B6B6B283BA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B4E5F-0691-421D-93BF-833150B85931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Triple Ints US==1" sheetId="2" r:id="rId1"/>
     <sheet name="USDummyModelTripleInteraction" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -476,7 +476,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1031,6 +1031,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Coefficients by AgeCategory over Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2981,11 +3006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3754,10 +3779,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F781"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/output/USDummyModelTripleInteraction.xlsx
+++ b/output/USDummyModelTripleInteraction.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bz22\Desktop\ComparativeMortality\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B4E5F-0691-421D-93BF-833150B85931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BCC740-5EC9-46EB-8B1B-806DE502878E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="150">
   <si>
     <t>qx</t>
   </si>
@@ -954,10 +954,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1051,7 +1052,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Coefficients by AgeCategory over Time</a:t>
+              <a:t>Coefficients by YearDecade</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1088,25 +1089,25 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Triple Ints US==1'!$E$3</c:f>
+              <c:f>'Triple Ints US==1'!$P$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>USDummy=1 # 10-19  # YearDecade</c:v>
+                  <c:v>1960</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1115,78 +1116,77 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Triple Ints US==1'!$Q$16:$X$16</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Triple Ints US==1'!$F$2:$K$2</c:f>
+              <c:f>'Triple Ints US==1'!$Q$17:$X$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1960</c:v>
+                  <c:v>-1.4080000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1970</c:v>
+                  <c:v>-9.3979999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1980</c:v>
+                  <c:v>-1.133E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1990</c:v>
+                  <c:v>1.3900000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>4.3340000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>-2.4300000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2219000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8214E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Triple Ints US==1'!$F$3:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>-1.4080000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.115E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.45E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-7.47E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.371E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.215E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-447D-4062-9EFD-2F28B6D53983}"/>
+              <c16:uniqueId val="{00000000-2D8B-49CC-AE39-D6959A7D387E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1195,17 +1195,17 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Triple Ints US==1'!$E$4</c:f>
+              <c:f>'Triple Ints US==1'!$P$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>USDummy=1 # 20-29 # YearDecade</c:v>
+                  <c:v>1970</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1214,78 +1214,77 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Triple Ints US==1'!$Q$16:$X$16</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Triple Ints US==1'!$F$2:$K$2</c:f>
+              <c:f>'Triple Ints US==1'!$Q$18:$X$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1960</c:v>
+                  <c:v>-1.115E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1970</c:v>
+                  <c:v>-9.7550000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1980</c:v>
+                  <c:v>-2.8160000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1990</c:v>
+                  <c:v>-3.748E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>-1.158E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>-1.0662E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4120000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2490000000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Triple Ints US==1'!$F$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>-9.3979999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-9.7550000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.1783E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.1215999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.0237E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-9.4289999999999999E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-447D-4062-9EFD-2F28B6D53983}"/>
+              <c16:uniqueId val="{00000001-2D8B-49CC-AE39-D6959A7D387E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1294,17 +1293,17 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Triple Ints US==1'!$E$5</c:f>
+              <c:f>'Triple Ints US==1'!$P$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>USDummy=1 # 30-39  # YearDecade</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1313,78 +1312,77 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Triple Ints US==1'!$Q$16:$X$16</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Triple Ints US==1'!$F$2:$K$2</c:f>
+              <c:f>'Triple Ints US==1'!$Q$19:$X$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1960</c:v>
+                  <c:v>-1.45E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1970</c:v>
+                  <c:v>-1.1783E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1980</c:v>
+                  <c:v>-3.3629999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1990</c:v>
+                  <c:v>-5.0020000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>-2.5169999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>-3.7609999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7567999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2546E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Triple Ints US==1'!$F$5:$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>-1.133E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.8160000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.3629999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.017E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.4929999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7.1099999999999994E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-447D-4062-9EFD-2F28B6D53983}"/>
+              <c16:uniqueId val="{00000002-2D8B-49CC-AE39-D6959A7D387E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1393,17 +1391,17 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Triple Ints US==1'!$E$6</c:f>
+              <c:f>'Triple Ints US==1'!$P$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>USDummy=1 # 40-49  # YearDecade</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1412,78 +1410,77 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Triple Ints US==1'!$Q$16:$X$16</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Triple Ints US==1'!$F$2:$K$2</c:f>
+              <c:f>'Triple Ints US==1'!$Q$20:$X$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1960</c:v>
+                  <c:v>-7.47E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1970</c:v>
+                  <c:v>-1.1215999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1980</c:v>
+                  <c:v>-2.017E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1990</c:v>
+                  <c:v>-7.8499999999999994E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>3.0949999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>-1.2530000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3698999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8725000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Triple Ints US==1'!$F$6:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.3900000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.748E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5.0020000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>-7.8499999999999994E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0699999999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.91E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-447D-4062-9EFD-2F28B6D53983}"/>
+              <c16:uniqueId val="{00000003-2D8B-49CC-AE39-D6959A7D387E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1492,17 +1489,17 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Triple Ints US==1'!$E$7</c:f>
+              <c:f>'Triple Ints US==1'!$P$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>USDummy=1 # 50-59  # YearDecade</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -1511,78 +1508,77 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Triple Ints US==1'!$Q$16:$X$16</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Triple Ints US==1'!$F$2:$K$2</c:f>
+              <c:f>'Triple Ints US==1'!$Q$21:$X$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1960</c:v>
+                  <c:v>-1.371E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1970</c:v>
+                  <c:v>-1.0237E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1980</c:v>
+                  <c:v>-3.4929999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1990</c:v>
+                  <c:v>2.0699999999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>4.3140000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>1.088E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9713999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9616E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Triple Ints US==1'!$F$7:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.3340000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.158E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.5169999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0949999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3140000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3250000000000002E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-447D-4062-9EFD-2F28B6D53983}"/>
+              <c16:uniqueId val="{00000004-2D8B-49CC-AE39-D6959A7D387E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1591,17 +1587,17 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Triple Ints US==1'!$E$8</c:f>
+              <c:f>'Triple Ints US==1'!$P$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>USDummy=1 # 60-69  # YearDecade</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -1610,288 +1606,77 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Triple Ints US==1'!$Q$16:$X$16</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Triple Ints US==1'!$F$2:$K$2</c:f>
+              <c:f>'Triple Ints US==1'!$Q$22:$X$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1960</c:v>
+                  <c:v>-1.215E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1970</c:v>
+                  <c:v>-9.4289999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1980</c:v>
+                  <c:v>-7.1099999999999994E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1990</c:v>
+                  <c:v>-1.91E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>8.3250000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2010</c:v>
+                  <c:v>-1.089E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4935000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8284E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Triple Ints US==1'!$F$8:$K$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>-2.4300000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.0662E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.7609999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.2530000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.088E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.089E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-447D-4062-9EFD-2F28B6D53983}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Triple Ints US==1'!$E$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>USDummy=1 # 70-79  # YearDecade</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Triple Ints US==1'!$F$2:$K$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1960</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1970</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1980</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2010</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Triple Ints US==1'!$F$9:$K$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.2219000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4120000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7567999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3698999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.9713999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.4935000000000001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-447D-4062-9EFD-2F28B6D53983}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Triple Ints US==1'!$E$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>USDummy=1 # 80  # YearDecade</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Triple Ints US==1'!$F$2:$K$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1960</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1970</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1980</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2010</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Triple Ints US==1'!$F$10:$K$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.8214E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.2490000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2546E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8725000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9616E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8284E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-447D-4062-9EFD-2F28B6D53983}"/>
+              <c16:uniqueId val="{00000005-2D8B-49CC-AE39-D6959A7D387E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1903,30 +1688,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="773325840"/>
-        <c:axId val="764067888"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="773325840"/>
+        <c:smooth val="0"/>
+        <c:axId val="1343416719"/>
+        <c:axId val="1341309567"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1343416719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1936,8 +1708,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1964,12 +1736,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764067888"/>
+        <c:crossAx val="1341309567"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="764067888"/>
+        <c:axId val="1341309567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1995,14 +1770,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2026,9 +1795,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="773325840"/>
+        <c:crossAx val="1343416719"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2039,7 +1808,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2154,7 +1923,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2181,8 +1950,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2262,6 +2031,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2272,6 +2046,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2283,7 +2062,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2303,6 +2082,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2315,10 +2097,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2358,23 +2140,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2479,8 +2260,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2612,20 +2393,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2639,17 +2419,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2673,23 +2442,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1219199</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2270F1-42DD-4AC3-AF6A-8789EC77C164}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDC1F14-E736-4271-8D4F-E76D0368BE75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2713,7 +2482,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 1">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2739,7 +2508,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="000000"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -3007,10 +2776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="L5" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3021,9 +2790,14 @@
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -3031,7 +2805,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -3060,7 +2834,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3095,7 +2869,7 @@
         <v>-1.215E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -3130,7 +2904,7 @@
         <v>-9.4289999999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -3164,8 +2938,32 @@
         <f>B29</f>
         <v>-7.1099999999999994E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R5" t="s">
+        <v>136</v>
+      </c>
+      <c r="S5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T5" t="s">
+        <v>138</v>
+      </c>
+      <c r="U5" t="s">
+        <v>139</v>
+      </c>
+      <c r="V5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W5" t="s">
+        <v>141</v>
+      </c>
+      <c r="X5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -3199,8 +2997,43 @@
         <f>B36</f>
         <v>-1.91E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q6" s="3" t="str">
+        <f>"10-19"</f>
+        <v>10-19</v>
+      </c>
+      <c r="R6" t="str">
+        <f>"20-29"</f>
+        <v>20-29</v>
+      </c>
+      <c r="S6" t="str">
+        <f>"30-39"</f>
+        <v>30-39</v>
+      </c>
+      <c r="T6" t="str">
+        <f>"40-49"</f>
+        <v>40-49</v>
+      </c>
+      <c r="U6" t="str">
+        <f>"50-59"</f>
+        <v>50-59</v>
+      </c>
+      <c r="V6" t="str">
+        <f>"60-69"</f>
+        <v>60-69</v>
+      </c>
+      <c r="W6" t="str">
+        <f>"70-79"</f>
+        <v>70-79</v>
+      </c>
+      <c r="X6" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -3234,8 +3067,35 @@
         <f>B43</f>
         <v>8.3250000000000002E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>1960</v>
+      </c>
+      <c r="Q7">
+        <v>-1.4080000000000001E-4</v>
+      </c>
+      <c r="R7">
+        <v>-9.3979999999999997E-4</v>
+      </c>
+      <c r="S7">
+        <v>-1.133E-4</v>
+      </c>
+      <c r="T7">
+        <v>1.3900000000000001E-5</v>
+      </c>
+      <c r="U7">
+        <v>4.3340000000000002E-4</v>
+      </c>
+      <c r="V7">
+        <v>-2.4300000000000001E-5</v>
+      </c>
+      <c r="W7">
+        <v>2.2219000000000002E-3</v>
+      </c>
+      <c r="X7">
+        <v>3.8214E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -3269,8 +3129,35 @@
         <f>B50</f>
         <v>-1.089E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>1970</v>
+      </c>
+      <c r="Q8">
+        <v>-1.115E-4</v>
+      </c>
+      <c r="R8">
+        <v>-9.7550000000000002E-4</v>
+      </c>
+      <c r="S8">
+        <v>-2.8160000000000001E-4</v>
+      </c>
+      <c r="T8">
+        <v>-3.748E-4</v>
+      </c>
+      <c r="U8">
+        <v>-1.158E-4</v>
+      </c>
+      <c r="V8">
+        <v>-1.0662E-3</v>
+      </c>
+      <c r="W8">
+        <v>5.4120000000000004E-4</v>
+      </c>
+      <c r="X8">
+        <v>-3.2490000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -3304,8 +3191,35 @@
         <f>B57</f>
         <v>3.4935000000000001E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>1980</v>
+      </c>
+      <c r="Q9">
+        <v>-1.45E-4</v>
+      </c>
+      <c r="R9">
+        <v>-1.1783E-3</v>
+      </c>
+      <c r="S9">
+        <v>-3.3629999999999999E-4</v>
+      </c>
+      <c r="T9">
+        <v>-5.0020000000000002E-4</v>
+      </c>
+      <c r="U9">
+        <v>-2.5169999999999999E-4</v>
+      </c>
+      <c r="V9">
+        <v>-3.7609999999999998E-4</v>
+      </c>
+      <c r="W9">
+        <v>2.7567999999999998E-3</v>
+      </c>
+      <c r="X9">
+        <v>1.2546E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -3339,24 +3253,105 @@
         <f>B64</f>
         <v>1.8284E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>1990</v>
+      </c>
+      <c r="Q10">
+        <v>-7.47E-5</v>
+      </c>
+      <c r="R10">
+        <v>-1.1215999999999999E-3</v>
+      </c>
+      <c r="S10">
+        <v>-2.017E-4</v>
+      </c>
+      <c r="T10">
+        <v>-7.8499999999999994E-6</v>
+      </c>
+      <c r="U10">
+        <v>3.0949999999999999E-4</v>
+      </c>
+      <c r="V10">
+        <v>-1.2530000000000001E-4</v>
+      </c>
+      <c r="W10">
+        <v>3.3698999999999999E-3</v>
+      </c>
+      <c r="X10">
+        <v>3.8725000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>78</v>
       </c>
       <c r="B11">
         <v>-1.115E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>2000</v>
+      </c>
+      <c r="Q11">
+        <v>-1.371E-4</v>
+      </c>
+      <c r="R11">
+        <v>-1.0237E-3</v>
+      </c>
+      <c r="S11">
+        <v>-3.4929999999999998E-4</v>
+      </c>
+      <c r="T11">
+        <v>2.0699999999999998E-5</v>
+      </c>
+      <c r="U11">
+        <v>4.3140000000000002E-4</v>
+      </c>
+      <c r="V11">
+        <v>1.088E-4</v>
+      </c>
+      <c r="W11">
+        <v>3.9713999999999999E-3</v>
+      </c>
+      <c r="X11">
+        <v>2.9616E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>79</v>
       </c>
       <c r="B12">
         <v>-1.45E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>2010</v>
+      </c>
+      <c r="Q12">
+        <v>-1.215E-4</v>
+      </c>
+      <c r="R12">
+        <v>-9.4289999999999999E-4</v>
+      </c>
+      <c r="S12">
+        <v>-7.1099999999999994E-5</v>
+      </c>
+      <c r="T12">
+        <v>-1.91E-5</v>
+      </c>
+      <c r="U12">
+        <v>8.3250000000000002E-4</v>
+      </c>
+      <c r="V12">
+        <v>-1.089E-4</v>
+      </c>
+      <c r="W12">
+        <v>3.4935000000000001E-3</v>
+      </c>
+      <c r="X12">
+        <v>1.8284E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -3364,79 +3359,465 @@
         <v>-7.47E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>81</v>
       </c>
       <c r="B14">
         <v>-1.371E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14">
+        <v>1960</v>
+      </c>
+      <c r="G14">
+        <v>1970</v>
+      </c>
+      <c r="H14">
+        <v>1980</v>
+      </c>
+      <c r="I14">
+        <v>1990</v>
+      </c>
+      <c r="J14">
+        <v>2000</v>
+      </c>
+      <c r="K14">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
       <c r="B15">
         <v>-1.215E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15">
+        <v>-1.4080000000000001E-4</v>
+      </c>
+      <c r="G15">
+        <v>-1.115E-4</v>
+      </c>
+      <c r="H15">
+        <v>-1.45E-4</v>
+      </c>
+      <c r="I15">
+        <v>-7.47E-5</v>
+      </c>
+      <c r="J15">
+        <v>-1.371E-4</v>
+      </c>
+      <c r="K15">
+        <v>-1.215E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16">
+        <v>-9.3979999999999997E-4</v>
+      </c>
+      <c r="G16">
+        <v>-9.7550000000000002E-4</v>
+      </c>
+      <c r="H16">
+        <v>-1.1783E-3</v>
+      </c>
+      <c r="I16">
+        <v>-1.1215999999999999E-3</v>
+      </c>
+      <c r="J16">
+        <v>-1.0237E-3</v>
+      </c>
+      <c r="K16">
+        <v>-9.4289999999999999E-4</v>
+      </c>
+      <c r="P16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q16" s="3" t="str">
+        <f>"10-19"</f>
+        <v>10-19</v>
+      </c>
+      <c r="R16" t="str">
+        <f>"20-29"</f>
+        <v>20-29</v>
+      </c>
+      <c r="S16" t="str">
+        <f>"30-39"</f>
+        <v>30-39</v>
+      </c>
+      <c r="T16" t="str">
+        <f>"40-49"</f>
+        <v>40-49</v>
+      </c>
+      <c r="U16" t="str">
+        <f>"50-59"</f>
+        <v>50-59</v>
+      </c>
+      <c r="V16" t="str">
+        <f>"60-69"</f>
+        <v>60-69</v>
+      </c>
+      <c r="W16" t="str">
+        <f>"70-79"</f>
+        <v>70-79</v>
+      </c>
+      <c r="X16" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
       <c r="B17">
         <v>-9.3979999999999997E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17">
+        <v>-1.133E-4</v>
+      </c>
+      <c r="G17">
+        <v>-2.8160000000000001E-4</v>
+      </c>
+      <c r="H17">
+        <v>-3.3629999999999999E-4</v>
+      </c>
+      <c r="I17">
+        <v>-2.017E-4</v>
+      </c>
+      <c r="J17">
+        <v>-3.4929999999999998E-4</v>
+      </c>
+      <c r="K17">
+        <v>-7.1099999999999994E-5</v>
+      </c>
+      <c r="P17">
+        <v>1960</v>
+      </c>
+      <c r="Q17">
+        <v>-1.4080000000000001E-4</v>
+      </c>
+      <c r="R17">
+        <v>-9.3979999999999997E-4</v>
+      </c>
+      <c r="S17">
+        <v>-1.133E-4</v>
+      </c>
+      <c r="T17">
+        <v>1.3900000000000001E-5</v>
+      </c>
+      <c r="U17">
+        <v>4.3340000000000002E-4</v>
+      </c>
+      <c r="V17">
+        <v>-2.4300000000000001E-5</v>
+      </c>
+      <c r="W17">
+        <v>2.2219000000000002E-3</v>
+      </c>
+      <c r="X17">
+        <v>3.8214E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
       <c r="B18">
         <v>-9.7550000000000002E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18">
+        <v>1.3900000000000001E-5</v>
+      </c>
+      <c r="G18">
+        <v>-3.748E-4</v>
+      </c>
+      <c r="H18">
+        <v>-5.0020000000000002E-4</v>
+      </c>
+      <c r="I18">
+        <v>-7.8499999999999994E-6</v>
+      </c>
+      <c r="J18">
+        <v>2.0699999999999998E-5</v>
+      </c>
+      <c r="K18">
+        <v>-1.91E-5</v>
+      </c>
+      <c r="P18">
+        <v>1970</v>
+      </c>
+      <c r="Q18">
+        <v>-1.115E-4</v>
+      </c>
+      <c r="R18">
+        <v>-9.7550000000000002E-4</v>
+      </c>
+      <c r="S18">
+        <v>-2.8160000000000001E-4</v>
+      </c>
+      <c r="T18">
+        <v>-3.748E-4</v>
+      </c>
+      <c r="U18">
+        <v>-1.158E-4</v>
+      </c>
+      <c r="V18">
+        <v>-1.0662E-3</v>
+      </c>
+      <c r="W18">
+        <v>5.4120000000000004E-4</v>
+      </c>
+      <c r="X18">
+        <v>-3.2490000000000002E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>86</v>
       </c>
       <c r="B19">
         <v>-1.1783E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19">
+        <v>4.3340000000000002E-4</v>
+      </c>
+      <c r="G19">
+        <v>-1.158E-4</v>
+      </c>
+      <c r="H19">
+        <v>-2.5169999999999999E-4</v>
+      </c>
+      <c r="I19">
+        <v>3.0949999999999999E-4</v>
+      </c>
+      <c r="J19">
+        <v>4.3140000000000002E-4</v>
+      </c>
+      <c r="K19">
+        <v>8.3250000000000002E-4</v>
+      </c>
+      <c r="P19">
+        <v>1980</v>
+      </c>
+      <c r="Q19">
+        <v>-1.45E-4</v>
+      </c>
+      <c r="R19">
+        <v>-1.1783E-3</v>
+      </c>
+      <c r="S19">
+        <v>-3.3629999999999999E-4</v>
+      </c>
+      <c r="T19">
+        <v>-5.0020000000000002E-4</v>
+      </c>
+      <c r="U19">
+        <v>-2.5169999999999999E-4</v>
+      </c>
+      <c r="V19">
+        <v>-3.7609999999999998E-4</v>
+      </c>
+      <c r="W19">
+        <v>2.7567999999999998E-3</v>
+      </c>
+      <c r="X19">
+        <v>1.2546E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>87</v>
       </c>
       <c r="B20">
         <v>-1.1215999999999999E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20">
+        <v>-2.4300000000000001E-5</v>
+      </c>
+      <c r="G20">
+        <v>-1.0662E-3</v>
+      </c>
+      <c r="H20">
+        <v>-3.7609999999999998E-4</v>
+      </c>
+      <c r="I20">
+        <v>-1.2530000000000001E-4</v>
+      </c>
+      <c r="J20">
+        <v>1.088E-4</v>
+      </c>
+      <c r="K20">
+        <v>-1.089E-4</v>
+      </c>
+      <c r="P20">
+        <v>1990</v>
+      </c>
+      <c r="Q20">
+        <v>-7.47E-5</v>
+      </c>
+      <c r="R20">
+        <v>-1.1215999999999999E-3</v>
+      </c>
+      <c r="S20">
+        <v>-2.017E-4</v>
+      </c>
+      <c r="T20">
+        <v>-7.8499999999999994E-6</v>
+      </c>
+      <c r="U20">
+        <v>3.0949999999999999E-4</v>
+      </c>
+      <c r="V20">
+        <v>-1.2530000000000001E-4</v>
+      </c>
+      <c r="W20">
+        <v>3.3698999999999999E-3</v>
+      </c>
+      <c r="X20">
+        <v>3.8725000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
       <c r="B21">
         <v>-1.0237E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21">
+        <v>2.2219000000000002E-3</v>
+      </c>
+      <c r="G21">
+        <v>5.4120000000000004E-4</v>
+      </c>
+      <c r="H21">
+        <v>2.7567999999999998E-3</v>
+      </c>
+      <c r="I21">
+        <v>3.3698999999999999E-3</v>
+      </c>
+      <c r="J21">
+        <v>3.9713999999999999E-3</v>
+      </c>
+      <c r="K21">
+        <v>3.4935000000000001E-3</v>
+      </c>
+      <c r="P21">
+        <v>2000</v>
+      </c>
+      <c r="Q21">
+        <v>-1.371E-4</v>
+      </c>
+      <c r="R21">
+        <v>-1.0237E-3</v>
+      </c>
+      <c r="S21">
+        <v>-3.4929999999999998E-4</v>
+      </c>
+      <c r="T21">
+        <v>2.0699999999999998E-5</v>
+      </c>
+      <c r="U21">
+        <v>4.3140000000000002E-4</v>
+      </c>
+      <c r="V21">
+        <v>1.088E-4</v>
+      </c>
+      <c r="W21">
+        <v>3.9713999999999999E-3</v>
+      </c>
+      <c r="X21">
+        <v>2.9616E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
       <c r="B22">
         <v>-9.4289999999999999E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22">
+        <v>3.8214E-3</v>
+      </c>
+      <c r="G22">
+        <v>-3.2490000000000002E-3</v>
+      </c>
+      <c r="H22">
+        <v>1.2546E-3</v>
+      </c>
+      <c r="I22">
+        <v>3.8725000000000001E-3</v>
+      </c>
+      <c r="J22">
+        <v>2.9616E-3</v>
+      </c>
+      <c r="K22">
+        <v>1.8284E-3</v>
+      </c>
+      <c r="P22">
+        <v>2010</v>
+      </c>
+      <c r="Q22">
+        <v>-1.215E-4</v>
+      </c>
+      <c r="R22">
+        <v>-9.4289999999999999E-4</v>
+      </c>
+      <c r="S22">
+        <v>-7.1099999999999994E-5</v>
+      </c>
+      <c r="T22">
+        <v>-1.91E-5</v>
+      </c>
+      <c r="U22">
+        <v>8.3250000000000002E-4</v>
+      </c>
+      <c r="V22">
+        <v>-1.089E-4</v>
+      </c>
+      <c r="W22">
+        <v>3.4935000000000001E-3</v>
+      </c>
+      <c r="X22">
+        <v>1.8284E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -3444,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -3452,7 +3833,7 @@
         <v>-1.133E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -3460,7 +3841,7 @@
         <v>-2.8160000000000001E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -3468,7 +3849,7 @@
         <v>-3.3629999999999999E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -3476,7 +3857,7 @@
         <v>-2.017E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -3484,7 +3865,7 @@
         <v>-3.4929999999999998E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -3492,7 +3873,7 @@
         <v>-7.1099999999999994E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -3500,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -3508,7 +3889,7 @@
         <v>1.3900000000000001E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>99</v>
       </c>

--- a/output/USDummyModelTripleInteraction.xlsx
+++ b/output/USDummyModelTripleInteraction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bz22\Desktop\ComparativeMortality\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BCC740-5EC9-46EB-8B1B-806DE502878E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D541E7E5-8FF6-45F1-8E64-651D2568A2D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1882,7 +1882,1024 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Coefficients by AgeCat and YearDecade</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Triple Ints US==1'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 10-19  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Triple Ints US==1'!$F$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Triple Ints US==1'!$F$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.4080000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.115E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.45E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.47E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.371E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.215E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A27C-419D-9A2F-947D15DFEDAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Triple Ints US==1'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 20-29 # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Triple Ints US==1'!$F$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Triple Ints US==1'!$F$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-9.3979999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.7550000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.1783E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1215999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0237E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.4289999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A27C-419D-9A2F-947D15DFEDAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Triple Ints US==1'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 30-39  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Triple Ints US==1'!$F$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Triple Ints US==1'!$F$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.133E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.8160000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.3629999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.017E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.4929999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.1099999999999994E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A27C-419D-9A2F-947D15DFEDAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Triple Ints US==1'!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 40-49  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Triple Ints US==1'!$F$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Triple Ints US==1'!$F$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3900000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.748E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0020000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>-7.8499999999999994E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0699999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.91E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A27C-419D-9A2F-947D15DFEDAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Triple Ints US==1'!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 50-59  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Triple Ints US==1'!$F$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Triple Ints US==1'!$F$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.3340000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.158E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.5169999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0949999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3140000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3250000000000002E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A27C-419D-9A2F-947D15DFEDAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Triple Ints US==1'!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 60-69  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Triple Ints US==1'!$F$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Triple Ints US==1'!$F$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.4300000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0662E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7609999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2530000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.088E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.089E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A27C-419D-9A2F-947D15DFEDAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Triple Ints US==1'!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 70-79  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Triple Ints US==1'!$F$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Triple Ints US==1'!$F$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.2219000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4120000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7567999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3698999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9713999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4935000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A27C-419D-9A2F-947D15DFEDAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Triple Ints US==1'!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 80  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Triple Ints US==1'!$F$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Triple Ints US==1'!$F$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8214E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.2490000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2546E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8725000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9616E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8284E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A27C-419D-9A2F-947D15DFEDAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1947502255"/>
+        <c:axId val="1938236095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1947502255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1938236095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1938236095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1947502255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2438,20 +3455,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>1219199</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>1371599</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2471,6 +4004,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9558B6C-5E7C-4489-922C-D767E5B79174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2778,8 +4347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L5" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4164,7 +5733,7 @@
   <dimension ref="A2:F781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E2" sqref="E2:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/output/USDummyModelTripleInteraction.xlsx
+++ b/output/USDummyModelTripleInteraction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bz22\Desktop\ComparativeMortality\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D541E7E5-8FF6-45F1-8E64-651D2568A2D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1E0A73-8B6D-466A-80ED-4B9B1FDFB312}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3975,16 +3975,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>359708</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>103374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>1371599</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1522318</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>117662</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4011,16 +4011,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215152</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>58549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>174810</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4347,7 +4347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
